--- a/data/case1/16/V2_4.xlsx
+++ b/data/case1/16/V2_4.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999997261804641</v>
+        <v>0.99999998593648143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99527151090057964</v>
+        <v>0.99531893239156999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98157905244783583</v>
+        <v>0.98144903717425758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97544641004385102</v>
+        <v>0.97521877446479577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9663390624228837</v>
+        <v>0.96601031874524734</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94470691828038067</v>
+        <v>0.94421381987814001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94514787641160081</v>
+        <v>0.94469903265270216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94427465712954328</v>
+        <v>0.94362476433294651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94789086986975379</v>
+        <v>0.94702190820974164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95249540311747127</v>
+        <v>0.95140410476153014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.95315962376476437</v>
+        <v>0.95201357679876042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95324147711022267</v>
+        <v>0.95212125043906104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95543018353903253</v>
+        <v>0.95423107512129035</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95719393253789509</v>
+        <v>0.95588857584347187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.96021194956151845</v>
+        <v>0.95885858986718031</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.96438617678870719</v>
+        <v>0.96300448854724097</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.97490375335102275</v>
+        <v>0.97326398684909488</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.98051587569342702</v>
+        <v>0.97883816579941518</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99308941504225978</v>
+        <v>0.99312447520142677</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98597352056143939</v>
+        <v>0.98600787155506198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98457523517170153</v>
+        <v>0.98460946664570703</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98331077626089325</v>
+        <v>0.98334498472844167</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97743470289418322</v>
+        <v>0.97726710178208909</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9708572116509272</v>
+        <v>0.97061927872649512</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96440043648828477</v>
+        <v>0.96416240832850564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94105289872476083</v>
+        <v>0.94055899724449232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93620776800371619</v>
+        <v>0.93571312125714057</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.91473971103465135</v>
+        <v>0.91424254279953709</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89947121151436604</v>
+        <v>0.89897242190751991</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.89290184948532059</v>
+        <v>0.89240244695079318</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88524989704349055</v>
+        <v>0.88474937441165413</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.88357091839124713</v>
+        <v>0.88307018771941825</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.88305098240521906</v>
+        <v>0.88255021291278068</v>
       </c>
     </row>
   </sheetData>
